--- a/OREI_files/10-herd data/MALDI files/MALDI results from Pamela_ as of March_ Vermont isolates_3.26.2021.xlsx
+++ b/OREI_files/10-herd data/MALDI files/MALDI results from Pamela_ as of March_ Vermont isolates_3.26.2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/MALDI files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C4C1FC12-3DD3-464E-ACD5-6B7E75B1D9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC904D50-8903-4FBD-86B3-8A12044F4331}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C4C1FC12-3DD3-464E-ACD5-6B7E75B1D9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{331441AC-A3F3-4D0D-9321-9D0E5F45027F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BJ farm" sheetId="8" r:id="rId1"/>
@@ -6714,7 +6714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
@@ -24497,9 +24497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24753,7 +24753,7 @@
         <v>1018</v>
       </c>
       <c r="B11" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D11" t="s">
         <v>695</v>
